--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -108,18 +108,9 @@
     <t>zewnetrzny</t>
   </si>
   <si>
-    <t>przycisk 1</t>
-  </si>
-  <si>
     <t>warsztat</t>
   </si>
   <si>
-    <t>powiazany z 51/1</t>
-  </si>
-  <si>
-    <t>przycisk 2</t>
-  </si>
-  <si>
     <t>pokoj</t>
   </si>
   <si>
@@ -129,49 +120,94 @@
     <t>wejscie do stajni</t>
   </si>
   <si>
-    <t>przycisk 3 - prawy</t>
-  </si>
-  <si>
     <t>51/6</t>
   </si>
   <si>
-    <t>przycisk 3 - lewy</t>
-  </si>
-  <si>
     <t>51/4</t>
   </si>
   <si>
-    <t>przycisk 4 - lewy</t>
-  </si>
-  <si>
     <t>przy wozowni</t>
   </si>
   <si>
     <t>51/3</t>
   </si>
   <si>
-    <t>przycisk 4 - prawy</t>
-  </si>
-  <si>
     <t>51/5</t>
   </si>
   <si>
-    <t>przycisk 5 - lewy</t>
-  </si>
-  <si>
     <t>siano</t>
   </si>
   <si>
-    <t>otworz podajniki</t>
-  </si>
-  <si>
-    <t>przycisk 5 - prawy</t>
-  </si>
-  <si>
-    <t>zamknij podajniki</t>
-  </si>
-  <si>
     <t>klasyczne przyciski (pozycja górna = 1 = wyłączony) (pozycja dolna = 0 = włączony)</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>obw_251</t>
+  </si>
+  <si>
+    <t>obw_252</t>
+  </si>
+  <si>
+    <t>obw_253</t>
+  </si>
+  <si>
+    <t>obw_254</t>
+  </si>
+  <si>
+    <t>obw_255</t>
+  </si>
+  <si>
+    <t>obw_256</t>
+  </si>
+  <si>
+    <t>gn_001</t>
+  </si>
+  <si>
+    <t>gn_002</t>
+  </si>
+  <si>
+    <t>fed_001</t>
+  </si>
+  <si>
+    <t>fed_002</t>
+  </si>
+  <si>
+    <t>fed_003</t>
+  </si>
+  <si>
+    <t>fed_004</t>
+  </si>
+  <si>
+    <t>btn_001</t>
+  </si>
+  <si>
+    <t>btn_002</t>
+  </si>
+  <si>
+    <t>btn_003</t>
+  </si>
+  <si>
+    <t>btn_004</t>
+  </si>
+  <si>
+    <t>btn_005</t>
+  </si>
+  <si>
+    <t>btn_006</t>
+  </si>
+  <si>
+    <t>btn_007</t>
+  </si>
+  <si>
+    <t>btn_008</t>
+  </si>
+  <si>
+    <t>gniazda 001 i 002</t>
+  </si>
+  <si>
+    <t>podajniki 1-4</t>
   </si>
 </sst>
 </file>
@@ -261,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,75 +670,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="26" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="17.28515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="26" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="5"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="4"/>
+      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="5"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+      <c r="I2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="5"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="4"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V2" s="4"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -706,619 +750,683 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="O3" s="14"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
       <c r="O7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
       <c r="O9" s="14"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="17"/>
       <c r="O10" s="14"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="5"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="5"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="4"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="E16" s="1">
+      <c r="C16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="E17" s="1">
+      <c r="C17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>33</v>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="E18" s="1">
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>35</v>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="E19" s="1">
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="18"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="E20" s="1">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14"/>
+      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>41</v>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="18"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="E21" s="1">
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="7"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="E22" s="1">
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>46</v>
+      <c r="G22" s="19"/>
+      <c r="H22" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="E23" s="1">
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="5"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="5"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="5"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="5"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -1326,99 +1434,107 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="17"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -1426,24 +1542,26 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -1451,24 +1569,26 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -1476,24 +1596,26 @@
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -1501,24 +1623,26 @@
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -1526,101 +1650,107 @@
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="8" t="s">
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="12" t="s">
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="F16:F23"/>
+  <mergeCells count="8">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -144,30 +144,6 @@
     <t>Opis</t>
   </si>
   <si>
-    <t>obw_251</t>
-  </si>
-  <si>
-    <t>obw_252</t>
-  </si>
-  <si>
-    <t>obw_253</t>
-  </si>
-  <si>
-    <t>obw_254</t>
-  </si>
-  <si>
-    <t>obw_255</t>
-  </si>
-  <si>
-    <t>obw_256</t>
-  </si>
-  <si>
-    <t>gn_001</t>
-  </si>
-  <si>
-    <t>gn_002</t>
-  </si>
-  <si>
     <t>fed_001</t>
   </si>
   <si>
@@ -204,10 +180,34 @@
     <t>btn_008</t>
   </si>
   <si>
-    <t>gniazda 001 i 002</t>
-  </si>
-  <si>
     <t>podajniki 1-4</t>
+  </si>
+  <si>
+    <t>obw_51</t>
+  </si>
+  <si>
+    <t>obw_52</t>
+  </si>
+  <si>
+    <t>obw_53</t>
+  </si>
+  <si>
+    <t>obw_54</t>
+  </si>
+  <si>
+    <t>obw_55</t>
+  </si>
+  <si>
+    <t>obw_56</t>
+  </si>
+  <si>
+    <t>gn_111</t>
+  </si>
+  <si>
+    <t>gn_112</t>
+  </si>
+  <si>
+    <t>gniazda 111 i 112</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,7 +673,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -793,7 +793,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>22</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -855,7 +855,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>22</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>22</v>
@@ -961,7 +961,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>22</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -1152,7 +1152,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>29</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>30</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>32</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>34</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>35</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>37</v>
@@ -1338,13 +1338,13 @@
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1370,10 +1370,10 @@
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -105,9 +105,6 @@
     <t>box 3</t>
   </si>
   <si>
-    <t>zewnetrzny</t>
-  </si>
-  <si>
     <t>warsztat</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>fed_003</t>
   </si>
   <si>
-    <t>fed_004</t>
-  </si>
-  <si>
     <t>btn_001</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>gniazda 111 i 112</t>
+  </si>
+  <si>
+    <t>podgrzewanie poidła zewnętrznego</t>
+  </si>
+  <si>
+    <t>odpalane przy niskiej temp razem z rynnami</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +355,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -763,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -781,7 +787,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -793,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>22</v>
@@ -819,7 +825,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -855,7 +861,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
@@ -865,7 +871,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>22</v>
@@ -891,7 +897,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -925,7 +931,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -935,7 +941,7 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>22</v>
@@ -961,7 +967,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -995,7 +1001,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -1003,16 +1009,10 @@
       <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -1039,13 +1039,13 @@
       <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
+      <c r="G11" s="11"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1149,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>8</v>
@@ -1184,13 +1184,13 @@
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1216,13 +1216,13 @@
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1248,10 +1248,10 @@
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="14"/>
@@ -1277,13 +1277,13 @@
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="14"/>
@@ -1309,10 +1309,10 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1338,13 +1338,13 @@
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1370,10 +1370,10 @@
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -1742,7 +1742,7 @@
       <c r="X42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="L27:L28"/>
@@ -1750,7 +1750,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -174,9 +174,6 @@
     <t>btn_008</t>
   </si>
   <si>
-    <t>podajniki 1-4</t>
-  </si>
-  <si>
     <t>obw_51</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>odpalane przy niskiej temp razem z rynnami</t>
+  </si>
+  <si>
+    <t>podajniki 1-3</t>
   </si>
 </sst>
 </file>
@@ -350,17 +350,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,7 +679,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -798,7 +798,7 @@
       <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="20" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -825,7 +825,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -836,7 +836,7 @@
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -897,7 +897,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -967,7 +967,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="14" t="s">
         <v>23</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="19"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -1010,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="19"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -1040,12 +1040,12 @@
         <v>8</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1148,7 +1148,7 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -1182,7 +1182,7 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="17" t="s">
         <v>44</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="17" t="s">
         <v>45</v>
       </c>
@@ -1246,14 +1246,14 @@
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="17" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1275,7 +1275,7 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="17" t="s">
         <v>47</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="J20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -1307,7 +1307,7 @@
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="17" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="17" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1368,12 +1368,12 @@
       <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -1457,7 +1457,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -1484,7 +1484,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -111,27 +111,12 @@
     <t>pokoj</t>
   </si>
   <si>
-    <t>51/2</t>
-  </si>
-  <si>
     <t>wejscie do stajni</t>
   </si>
   <si>
-    <t>51/6</t>
-  </si>
-  <si>
-    <t>51/4</t>
-  </si>
-  <si>
     <t>przy wozowni</t>
   </si>
   <si>
-    <t>51/3</t>
-  </si>
-  <si>
-    <t>51/5</t>
-  </si>
-  <si>
     <t>siano</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>gn_112</t>
   </si>
   <si>
-    <t>gniazda 111 i 112</t>
-  </si>
-  <si>
     <t>podgrzewanie poidła zewnętrznego</t>
   </si>
   <si>
@@ -208,13 +190,19 @@
   </si>
   <si>
     <t>podajniki 1-3</t>
+  </si>
+  <si>
+    <t>All On/Off</t>
+  </si>
+  <si>
+    <t>HorseDrinker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +223,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -350,9 +345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -769,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -787,7 +782,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
@@ -798,8 +793,8 @@
       <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>40</v>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>22</v>
@@ -825,7 +820,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -836,7 +831,7 @@
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
@@ -861,7 +856,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
@@ -870,8 +865,8 @@
         <v>3</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="20" t="s">
-        <v>41</v>
+      <c r="H6" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>22</v>
@@ -897,7 +892,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -906,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
@@ -931,7 +926,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -940,8 +935,8 @@
         <v>5</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="20" t="s">
-        <v>42</v>
+      <c r="H8" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>22</v>
@@ -967,7 +962,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -976,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="14" t="s">
         <v>23</v>
       </c>
@@ -986,7 +981,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="21"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1001,7 +996,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -1010,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="21"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1031,7 +1026,7 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -1039,13 +1034,15 @@
       <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>61</v>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1148,17 +1145,17 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1182,15 +1179,15 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1214,15 +1211,15 @@
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1246,14 +1243,14 @@
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="L19" s="19"/>
       <c r="M19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1275,17 +1272,17 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="L20" s="19"/>
       <c r="M20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -1307,12 +1304,12 @@
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1336,15 +1333,15 @@
       <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1368,12 +1365,12 @@
       <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -1457,7 +1454,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -1484,7 +1481,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>HorseDrinker</t>
+  </si>
+  <si>
+    <t>obw_57</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -345,17 +351,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,7 +680,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +799,7 @@
       <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -831,7 +837,7 @@
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
@@ -865,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -901,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
@@ -935,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -971,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="14" t="s">
         <v>23</v>
       </c>
@@ -981,7 +987,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1004,14 +1010,18 @@
       <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1034,14 +1044,14 @@
       <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="19" t="s">
         <v>55</v>
       </c>
       <c r="L11" s="14"/>
@@ -1145,7 +1155,7 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -1179,7 +1189,7 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="17" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1221,7 @@
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="17" t="s">
         <v>40</v>
       </c>
@@ -1243,14 +1253,14 @@
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="19"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1272,7 +1282,7 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="17" t="s">
         <v>42</v>
       </c>
@@ -1282,7 +1292,7 @@
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -1304,7 +1314,7 @@
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="17" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1343,7 @@
       <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="17" t="s">
         <v>44</v>
       </c>
@@ -1365,7 +1375,7 @@
       <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="17" t="s">
         <v>45</v>
       </c>
@@ -1454,7 +1464,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="20"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -1481,7 +1491,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="20"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\strycht\Crestron\trunk\Kurasik\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6630" windowWidth="21840" windowHeight="6210"/>
+    <workbookView xWindow="-12" yWindow="6636" windowWidth="21840" windowHeight="6216"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -207,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,37 +684,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="12" max="12" width="23.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="1"/>
     <col min="19" max="19" width="26" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.28515625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="17.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -733,7 +738,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D2" s="6"/>
       <c r="I2" s="3"/>
       <c r="M2" s="3"/>
@@ -747,7 +752,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -782,7 +787,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -802,7 +807,7 @@
       <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -820,7 +825,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -838,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -856,7 +861,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -874,7 +879,7 @@
       <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -892,7 +897,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -908,7 +913,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -926,7 +931,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -944,7 +949,7 @@
       <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -962,7 +967,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -978,7 +983,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -996,7 +1001,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1030,7 +1035,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1066,7 +1071,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
@@ -1085,7 +1090,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
@@ -1104,7 +1109,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
@@ -1126,7 +1131,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
@@ -1145,7 +1150,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1179,7 +1184,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1211,7 +1216,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1243,7 +1248,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1272,7 +1277,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1304,7 +1309,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1333,7 +1338,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1365,7 +1370,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1394,7 +1399,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1402,7 +1407,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="C25" s="16"/>
       <c r="D25" s="5"/>
@@ -1426,7 +1431,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
       <c r="C26" s="16"/>
       <c r="D26" s="14"/>
@@ -1450,7 +1455,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1477,7 +1482,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1504,7 +1509,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1531,7 +1536,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1585,7 +1590,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1612,7 +1617,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1639,7 +1644,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1666,7 +1671,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -1674,7 +1679,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D36" s="11" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1690,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1701,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1712,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D40" s="12" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +1734,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D41" s="13" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1745,7 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\strycht\Crestron\trunk\Kurasik\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="6636" windowWidth="21840" windowHeight="6216"/>
+    <workbookView xWindow="-15" yWindow="6630" windowWidth="21840" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -74,9 +69,6 @@
     <t>osw pokoj (3)</t>
   </si>
   <si>
-    <t>osw wozownia + siano gora (5 + ?)</t>
-  </si>
-  <si>
     <t>osw warsztat (1 i 2)</t>
   </si>
   <si>
@@ -207,12 +199,18 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mata VAR - ogrzewanie podłogowe, mata pokój i WC, GN. 1 </t>
+  </si>
+  <si>
+    <t>HeatingMat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,37 +682,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I4:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="1"/>
+    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="26" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="1"/>
-    <col min="22" max="22" width="17.33203125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="20" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -738,7 +736,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D2" s="6"/>
       <c r="I2" s="3"/>
       <c r="M2" s="3"/>
@@ -752,7 +750,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -775,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -787,31 +785,31 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -825,13 +823,13 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
@@ -840,14 +838,14 @@
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -861,29 +859,29 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>16</v>
+      <c r="C6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -897,13 +895,13 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -914,10 +912,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="20"/>
       <c r="I7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -931,29 +929,29 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -967,16 +965,16 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
@@ -984,10 +982,10 @@
       <c r="G9" s="14"/>
       <c r="H9" s="20"/>
       <c r="I9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1001,26 +999,26 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="18"/>
       <c r="L10" s="14"/>
@@ -1035,29 +1033,29 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1071,7 +1069,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
@@ -1090,7 +1088,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
@@ -1109,7 +1107,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
@@ -1131,7 +1129,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
@@ -1150,7 +1148,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1161,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1184,7 +1182,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1196,13 +1194,13 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -1216,7 +1214,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1228,13 +1226,13 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1248,7 +1246,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1260,10 +1258,10 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="14"/>
@@ -1277,7 +1275,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1289,13 +1287,13 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="14"/>
@@ -1309,7 +1307,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1321,10 +1319,10 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1338,7 +1336,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1350,13 +1348,13 @@
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -1370,7 +1368,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1382,10 +1380,10 @@
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -1399,7 +1397,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1407,7 +1405,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="16"/>
       <c r="D25" s="5"/>
@@ -1431,7 +1429,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="16"/>
       <c r="D26" s="14"/>
@@ -1455,7 +1453,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1482,7 +1480,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1509,7 +1507,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1536,7 +1534,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1563,7 +1561,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1590,7 +1588,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1617,7 +1615,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1644,7 +1642,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1671,7 +1669,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -1679,7 +1677,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D36" s="11" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1688,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1699,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1710,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D39" s="9" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1721,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D40" s="12" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1732,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D41" s="13" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1743,7 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Stajnia.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\strycht\Crestron\trunk\Kurasik\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6630" windowWidth="21840" windowHeight="6210"/>
+    <workbookView xWindow="-12" yWindow="6636" windowWidth="21840" windowHeight="6216"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
-  <si>
-    <t>Pomieszczenie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Obwód</t>
   </si>
@@ -51,12 +53,6 @@
     <t>52/2</t>
   </si>
   <si>
-    <t>Aktor (8SW8)</t>
-  </si>
-  <si>
-    <t>Aktor (8SW8I)</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -84,54 +80,18 @@
     <t>gniazdo 2 (pozostale + zewnwtrzne)</t>
   </si>
   <si>
-    <t>podajnik siana dol (otworz)</t>
-  </si>
-  <si>
-    <t>podajnik siana gora (zamknij)</t>
-  </si>
-  <si>
-    <t>impuls</t>
-  </si>
-  <si>
-    <t>box 1</t>
-  </si>
-  <si>
-    <t>box 2</t>
-  </si>
-  <si>
-    <t>box 3</t>
-  </si>
-  <si>
     <t>warsztat</t>
   </si>
   <si>
     <t>pokoj</t>
   </si>
   <si>
-    <t>wejscie do stajni</t>
-  </si>
-  <si>
-    <t>przy wozowni</t>
-  </si>
-  <si>
     <t>siano</t>
   </si>
   <si>
-    <t>klasyczne przyciski (pozycja górna = 1 = wyłączony) (pozycja dolna = 0 = włączony)</t>
-  </si>
-  <si>
     <t>Opis</t>
   </si>
   <si>
-    <t>fed_001</t>
-  </si>
-  <si>
-    <t>fed_002</t>
-  </si>
-  <si>
-    <t>fed_003</t>
-  </si>
-  <si>
     <t>btn_001</t>
   </si>
   <si>
@@ -183,34 +143,37 @@
     <t>podgrzewanie poidła zewnętrznego</t>
   </si>
   <si>
-    <t>odpalane przy niskiej temp razem z rynnami</t>
-  </si>
-  <si>
-    <t>podajniki 1-3</t>
-  </si>
-  <si>
-    <t>All On/Off</t>
-  </si>
-  <si>
     <t>HorseDrinker</t>
   </si>
   <si>
     <t>obw_57</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mata VAR - ogrzewanie podłogowe, mata pokój i WC, GN. 1 </t>
-  </si>
-  <si>
     <t>HeatingMat</t>
+  </si>
+  <si>
+    <t>osw. Na górze (siano)</t>
+  </si>
+  <si>
+    <t>obw_56, obw_57</t>
+  </si>
+  <si>
+    <t>zewnetrzne</t>
+  </si>
+  <si>
+    <t>obw_54, obw_55</t>
+  </si>
+  <si>
+    <t>boxy + główne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MataVAR-ogrzewanie podłogowe, mata pokój i WC, GN. 1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,7 +327,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,763 +649,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="26" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.28515625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="26" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" style="1"/>
+    <col min="20" max="20" width="17.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="5"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D2" s="6"/>
-      <c r="I2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="5"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="14"/>
+      <c r="F5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="14"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="S6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="14"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="S7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="14"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="B9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="14"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="20"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="M9" s="14"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="L10" s="14"/>
+      <c r="F10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="M10" s="14"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="14"/>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="5"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="F16" s="1">
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="14"/>
+      <c r="F16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="1">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="14"/>
+      <c r="F17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
       <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="1">
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="14"/>
+      <c r="F18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
       <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="1">
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="20"/>
+      <c r="F19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="14"/>
       <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="20"/>
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="14"/>
       <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
-      <c r="F21" s="1">
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="14"/>
+      <c r="F21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="7"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="1">
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="E22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="14"/>
+      <c r="F22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="1">
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="14"/>
+      <c r="F23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -1444,107 +1318,99 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -1552,26 +1418,24 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -1579,26 +1443,24 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -1606,26 +1468,24 @@
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -1633,26 +1493,24 @@
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -1660,106 +1518,100 @@
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D36" s="11" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D37" s="10" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D39" s="9" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D40" s="12" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D41" s="13" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
+  <mergeCells count="3">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
